--- a/Document/BTBIN格式.xlsx
+++ b/Document/BTBIN格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chu89\OneDrive\Document\5AT\GPS Web\GPS-Track-Builder\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{3A69502C-48BE-4DAE-A501-5412F3B566AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93CFBEB-C9D5-4050-A3B0-5207F4624582}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{3A69502C-48BE-4DAE-A501-5412F3B566AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{268CE1B1-5F13-407B-9E16-D52252C96E89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2D06D83-88E1-4438-A248-2B7D5135ECF9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="203">
   <si>
     <t>月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,102 +140,533 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6B</t>
+    <t>checksum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>2E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6b</t>
-  </si>
-  <si>
-    <t>1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>FF</t>
   </si>
   <si>
     <t>FF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>checksum</t>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>2023/5/5</t>
+  </si>
+  <si>
+    <t>[RX]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>8E</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>09:55:47.306</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>09:55:47.407</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>09:55:47.613</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>10:55:48.298</t>
+  </si>
+  <si>
+    <t>YP</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>:00023464.552</t>
+  </si>
+  <si>
+    <t>&lt;CR&gt;&lt;LF&gt;</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>:00120430.976</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>:00023464.791</t>
+  </si>
+  <si>
+    <t>:00120431.302</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>:00023465.150</t>
+  </si>
+  <si>
+    <t>:00120431.619</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>offset:</t>
+  </si>
+  <si>
+    <t>000757.000000666</t>
+  </si>
+  <si>
+    <t>10:55:48.400</t>
+  </si>
+  <si>
+    <t>:00023464.616</t>
+  </si>
+  <si>
+    <t>:00120431.040</t>
+  </si>
+  <si>
+    <t>000792.000000666</t>
+  </si>
+  <si>
+    <t>10:55:48.509</t>
+  </si>
+  <si>
+    <t>:00023464.684</t>
+  </si>
+  <si>
+    <t>:00120431.080</t>
+  </si>
+  <si>
+    <t>000958.000000666</t>
+  </si>
+  <si>
+    <t>10:55:48.620</t>
+  </si>
+  <si>
+    <t>:00023464.748</t>
+  </si>
+  <si>
+    <t>:00120431.144</t>
+  </si>
+  <si>
+    <t>000980.000000666YP</t>
+  </si>
+  <si>
+    <t>:00023464.832</t>
+  </si>
+  <si>
+    <t>:00120431.208</t>
+  </si>
+  <si>
+    <t>&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>10:55:48.721</t>
+  </si>
+  <si>
+    <t>&lt;LF&gt;</t>
+  </si>
+  <si>
+    <t>000934.000000666</t>
+  </si>
+  <si>
+    <t>10:55:48.831</t>
+  </si>
+  <si>
+    <t>:00023464.900</t>
+  </si>
+  <si>
+    <t>:00120431.272</t>
+  </si>
+  <si>
+    <t>001005.000000666</t>
+  </si>
+  <si>
+    <t>10:55:48.940</t>
+  </si>
+  <si>
+    <t>:00023464.964</t>
+  </si>
+  <si>
+    <t>:00120431.336</t>
+  </si>
+  <si>
+    <t>000920.000000666</t>
+  </si>
+  <si>
+    <t>10:55:49.060</t>
+  </si>
+  <si>
+    <t>:00023465.034</t>
+  </si>
+  <si>
+    <t>:00120431.400</t>
+  </si>
+  <si>
+    <t>001004.000000666</t>
+  </si>
+  <si>
+    <t>10:55:49.170</t>
+  </si>
+  <si>
+    <t>:00023465.100</t>
+  </si>
+  <si>
+    <t>:00120431.464</t>
+  </si>
+  <si>
+    <t>000919.000000666</t>
+  </si>
+  <si>
+    <t>10:55:49.284</t>
+  </si>
+  <si>
+    <t>:00023465.164</t>
+  </si>
+  <si>
+    <t>:00120431.528</t>
+  </si>
+  <si>
+    <t>000859.000000666YP</t>
+  </si>
+  <si>
+    <t>:00023465.250</t>
+  </si>
+  <si>
+    <t>:00120431.568</t>
+  </si>
+  <si>
+    <t>latit</t>
+  </si>
+  <si>
+    <t>10:55:49.385</t>
+  </si>
+  <si>
+    <t>ude</t>
+  </si>
+  <si>
+    <t>001134.000000666</t>
+  </si>
+  <si>
+    <t>10:55:49.485</t>
+  </si>
+  <si>
+    <t>:00023465.314</t>
+  </si>
+  <si>
+    <t>:00120431.656</t>
+  </si>
+  <si>
+    <t>000966.000000666</t>
+  </si>
+  <si>
+    <t>10:55:49.601</t>
+  </si>
+  <si>
+    <t>:00023465.384</t>
+  </si>
+  <si>
+    <t>:00120431.720</t>
+  </si>
+  <si>
+    <t>000918.000000666YP</t>
+  </si>
+  <si>
+    <t>:00023465.450</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>10:55:49.701</t>
+  </si>
+  <si>
+    <t>ngitude</t>
+  </si>
+  <si>
+    <t>:00120431.784</t>
+  </si>
+  <si>
+    <t>000965.000000666</t>
+  </si>
+  <si>
+    <t>10:55:49.815</t>
+  </si>
+  <si>
+    <t>:00023465.514</t>
+  </si>
+  <si>
+    <t>:00120431.824</t>
+  </si>
+  <si>
+    <t>001094.000000666</t>
+  </si>
+  <si>
+    <t>10:55:49.932</t>
+  </si>
+  <si>
+    <t>:00023465.584</t>
+  </si>
+  <si>
+    <t>:00120431.888</t>
+  </si>
+  <si>
+    <t>001070.000000666</t>
+  </si>
+  <si>
+    <t>10:55:50.042</t>
+  </si>
+  <si>
+    <t>:00023465.666</t>
+  </si>
+  <si>
+    <t>:00120431.952</t>
+  </si>
+  <si>
+    <t>001120.000000666</t>
+  </si>
+  <si>
+    <t>10:55:50.155</t>
+  </si>
+  <si>
+    <t>:00023465.736</t>
+  </si>
+  <si>
+    <t>:00120432.016</t>
+  </si>
+  <si>
+    <t>001071.000000666</t>
+  </si>
+  <si>
+    <t>AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01</t>
+    <t>55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>EA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9B</t>
+    <t>AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,28 +792,37 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -395,6 +835,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,437 +1164,4094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC65738B-07E0-4C61-8E5F-7C82D9BACFF6}">
-  <dimension ref="B1:Q14"/>
+  <dimension ref="B1:KG190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.875" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="6">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B1" s="7">
         <v>0</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="7">
         <v>3</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="7">
         <v>4</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="7">
         <v>5</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="7">
         <v>6</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="7">
         <v>7</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="7">
         <v>8</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="7">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="8" t="s">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="Q3" s="7" t="s">
+      <c r="AD2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AA3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AA4" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="S8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10">
+      <c r="V8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="2:293" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:293" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:293" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG21" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:293" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG23" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:293" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG25" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:293" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG27" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="2:293" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG29" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="FR29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="10">
+      <c r="FS29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="FT29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="FU29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="HB29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="HC29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="HD29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="HE29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="IL29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="IM29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="IN29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="IO29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="JV29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="JW29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="JX29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="JY29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="JZ29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="KA29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="KB29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="KC29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="KD29" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="KE29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="KF29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="KG29" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:293" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="AE31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG31" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10">
-        <v>33</v>
-      </c>
-      <c r="I7" s="10">
-        <v>50</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="W33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG33" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="10">
+      <c r="V35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG35" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG39" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF41" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG41" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB43" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG43" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="10">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="C45" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10">
-        <v>85</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="10">
-        <v>94</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="10">
-        <v>11</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="D53" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="10">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="D61" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="10">
-        <v>85</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="10">
-        <v>31</v>
-      </c>
-      <c r="I11" s="10">
-        <v>94</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="D69" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="10">
-        <v>30</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="10">
+      <c r="D81" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="10">
-        <v>85</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="10">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="D86" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D94" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="10">
-        <v>31</v>
-      </c>
-      <c r="I14" s="10">
-        <v>94</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>51</v>
+      <c r="G94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I174" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J174" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I182" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J182" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
+  <mergeCells count="6">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,10 +5274,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="14">
+      <c r="B1" s="17">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="1">
         <v>1</v>
       </c>
@@ -1222,10 +5328,10 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1250,37 +5356,37 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="16" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="16"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/Document/BTBIN格式.xlsx
+++ b/Document/BTBIN格式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chu89\OneDrive\Document\5AT\GPS Web\GPS-Track-Builder\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\5AT\GPS-Track-Builder\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{3A69502C-48BE-4DAE-A501-5412F3B566AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{268CE1B1-5F13-407B-9E16-D52252C96E89}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562442E8-6DA7-4A9C-9910-008B24DEA752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2D06D83-88E1-4438-A248-2B7D5135ECF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{A2D06D83-88E1-4438-A248-2B7D5135ECF9}"/>
   </bookViews>
   <sheets>
     <sheet name="BT" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="203">
   <si>
     <t>月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OFFSET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">10   10  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +143,6 @@
     <t>FF</t>
   </si>
   <si>
-    <t>FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0A</t>
   </si>
   <si>
@@ -667,6 +659,14 @@
   </si>
   <si>
     <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURSOR_OFFSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFSET_DIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,17 +807,8 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,6 +835,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC65738B-07E0-4C61-8E5F-7C82D9BACFF6}">
   <dimension ref="B1:KG190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1227,271 +1224,275 @@
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="15" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="16" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>28</v>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="K8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="O8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="AC8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="8" t="s">
+      <c r="AD8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="AG8" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="H10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="J10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="AB10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="AC10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="8" t="s">
+      <c r="AD10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AB10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF10" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="AG10" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
@@ -1514,100 +1515,100 @@
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="H13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="J13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF13" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="AG13" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
@@ -1630,3622 +1631,3624 @@
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="H15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="S15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="V15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="8" t="s">
+      <c r="X15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="8" t="s">
+      <c r="AD15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF15" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="AG15" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="2:293" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="K17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="P17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="S17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="AA17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="AD17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:293" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="H19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="S19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="V19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="8" t="s">
+      <c r="AB19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC19" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="AD19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="2:293" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" s="8" t="s">
+      <c r="AC21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC21" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="AD21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:293" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="H23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="Z23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="AC23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF23" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="AG23" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:293" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="K25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="P25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="Z25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF25" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AG25" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="2:293" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="H27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="Z27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF27" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF27" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AG27" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="2:293" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="H29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="K29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="AB29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG29" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="FR29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="FS29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="FT29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="FU29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="HB29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="HC29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="HD29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="HE29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="IL29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="IM29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="IN29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="IO29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="JV29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="JW29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="JX29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="JY29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="JZ29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="KA29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="KB29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="KC29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="KD29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="KE29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="KF29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="KG29" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG29" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="FR29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="FS29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="FT29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="FU29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="HB29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="HC29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="HD29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="HE29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="IL29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="IM29" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="IN29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="IO29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="JV29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="JW29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="JX29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="JY29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="JZ29" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="KA29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="KB29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="KC29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="KD29" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="KE29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="KF29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="KG29" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:293" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="8" t="s">
+      <c r="O31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="P31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="S31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC31" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="AD31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG31" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="K33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="P33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="AB33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC33" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="AD33" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE33" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF33" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG33" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="H35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF35" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="AG35" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="H37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37" s="8" t="s">
+      <c r="AC37" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U37" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA37" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC37" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="AD37" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE37" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF37" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AG37" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="H39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB39" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J39" s="8" t="s">
+      <c r="AC39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF39" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V39" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB39" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF39" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="AG39" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="H41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB41" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N41" s="8" t="s">
+      <c r="AC41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y41" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z41" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA41" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC41" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="AD41" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF41" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="H43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="K43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB43" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N43" s="8" t="s">
+      <c r="AC43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z43" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA43" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB43" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC43" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="AD43" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="F45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="I45" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E48" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E50" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="J53" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E56" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E58" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="J61" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E64" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E66" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I69" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="J69" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E74" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E80" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C81" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="G81" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E83" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I86" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="J86" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E89" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E91" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I94" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="J94" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E97" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E99" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="J102" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E105" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E107" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I110" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="J110" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E113" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E115" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I118" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="J118" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E121" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E123" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C128" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H128" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="I128" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E129" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D131" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E131" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I134" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="J134" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E137" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E139" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I142" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="J142" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D145" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E145" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E147" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H151" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E151" s="8" t="s">
+      <c r="I151" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I151" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="J151" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D153" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E153" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D155" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E155" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I158" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C158" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I158" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="J158" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E161" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D163" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E163" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I166" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H166" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I166" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="J166" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D169" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E169" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D171" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E171" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I174" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H174" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I174" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="J174" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D177" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E177" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D179" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E179" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I182" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H182" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I182" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="J182" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D185" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E185" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E187" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="G2:J2"/>
@@ -5274,10 +5277,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="17">
+      <c r="B1" s="14">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="1">
         <v>1</v>
       </c>
@@ -5328,10 +5331,10 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5356,37 +5359,37 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="21" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="21"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="19" t="s">
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="19"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
